--- a/Web/doc/创客社区申请表-副本.xlsx
+++ b/Web/doc/创客社区申请表-副本.xlsx
@@ -105,7 +105,7 @@
     <t>李程远</t>
   </si>
   <si>
-    <t>罗  学</t>
+    <t>罗学</t>
   </si>
   <si>
     <t>李恒教</t>
@@ -318,7 +318,7 @@
     <t>陈申乾</t>
   </si>
   <si>
-    <t>陆  杰</t>
+    <t>陆杰</t>
   </si>
   <si>
     <t>李爱群</t>
@@ -378,7 +378,7 @@
     <t>奚德善</t>
   </si>
   <si>
-    <t>李  洪</t>
+    <t>李洪</t>
   </si>
   <si>
     <t>何贵新</t>
@@ -426,7 +426,7 @@
     <t>黄志波</t>
   </si>
   <si>
-    <t>冯  政</t>
+    <t>冯政</t>
   </si>
   <si>
     <t>覃海团</t>
@@ -474,16 +474,16 @@
     <t>付克英</t>
   </si>
   <si>
-    <t>赵  锐</t>
-  </si>
-  <si>
-    <t>刘  蓉</t>
+    <t>赵锐</t>
+  </si>
+  <si>
+    <t>刘蓉</t>
   </si>
   <si>
     <t>刘中琼</t>
   </si>
   <si>
-    <t>李  华</t>
+    <t>李华</t>
   </si>
   <si>
     <t>胡代群</t>
@@ -501,7 +501,7 @@
     <t>田云云</t>
   </si>
   <si>
-    <t>廖  莹</t>
+    <t>廖莹</t>
   </si>
   <si>
     <t>刁忠勋</t>
@@ -555,10 +555,10 @@
     <t>谢书明</t>
   </si>
   <si>
-    <t>王  湄</t>
-  </si>
-  <si>
-    <t>都  莉</t>
+    <t>王湄</t>
+  </si>
+  <si>
+    <t>都莉</t>
   </si>
   <si>
     <t>樊莉彬</t>
@@ -573,19 +573,19 @@
     <t>谢祥怀</t>
   </si>
   <si>
-    <t>谢  萍</t>
+    <t>谢萍</t>
   </si>
   <si>
     <t>姚永章</t>
   </si>
   <si>
-    <t>杨  英</t>
+    <t>杨英</t>
   </si>
   <si>
     <t>刘德群</t>
   </si>
   <si>
-    <t>黄  彬</t>
+    <t>黄彬</t>
   </si>
   <si>
     <t>田仕莉</t>
@@ -594,7 +594,7 @@
     <t>李国媛</t>
   </si>
   <si>
-    <t>蔡  华</t>
+    <t>蔡华</t>
   </si>
   <si>
     <t>李立芳</t>
@@ -615,13 +615,13 @@
     <t>姚明楷</t>
   </si>
   <si>
-    <t>廖  彬</t>
+    <t>廖彬</t>
   </si>
   <si>
     <t>钟安英</t>
   </si>
   <si>
-    <t>陶  楷</t>
+    <t>陶楷</t>
   </si>
   <si>
     <t>田秀英</t>
@@ -630,7 +630,7 @@
     <t>陈俊衡</t>
   </si>
   <si>
-    <t>李  杰</t>
+    <t>李杰</t>
   </si>
   <si>
     <t>李开玉</t>
@@ -657,16 +657,16 @@
     <t>钟桂芳</t>
   </si>
   <si>
-    <t>婷  兰</t>
+    <t>婷兰</t>
   </si>
   <si>
     <t>曾人为</t>
   </si>
   <si>
-    <t>曾  勇</t>
-  </si>
-  <si>
-    <t>吴  虹</t>
+    <t>曾勇</t>
+  </si>
+  <si>
+    <t>吴虹</t>
   </si>
   <si>
     <t>谢红英</t>
@@ -708,7 +708,7 @@
     <t>付克超</t>
   </si>
   <si>
-    <t>王  送</t>
+    <t>王送</t>
   </si>
   <si>
     <t>付咏权</t>
@@ -717,7 +717,7 @@
     <t>罗开棉</t>
   </si>
   <si>
-    <t>曾  钶</t>
+    <t>曾钶</t>
   </si>
   <si>
     <t>郑京员</t>
@@ -765,7 +765,7 @@
     <t>李分定</t>
   </si>
   <si>
-    <t>付  伟</t>
+    <t>付伟</t>
   </si>
   <si>
     <t>222</t>
@@ -794,10 +794,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -809,6 +809,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -816,7 +823,30 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -853,30 +883,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -887,22 +904,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -922,9 +923,23 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -932,21 +947,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -967,7 +967,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -979,25 +1057,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,13 +1093,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1039,31 +1111,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1075,61 +1123,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1141,13 +1147,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,11 +1176,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1190,6 +1196,15 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1205,6 +1220,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1235,36 +1265,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -1281,10 +1281,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,19 +1293,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1314,112 +1314,112 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,8 +1757,8 @@
   <sheetPr/>
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B71" sqref="B71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/Web/doc/创客社区申请表-副本.xlsx
+++ b/Web/doc/创客社区申请表-副本.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238">
   <si>
     <t>序号</t>
   </si>
@@ -207,9 +207,6 @@
     <t>黄昌贵</t>
   </si>
   <si>
-    <t>韦国新</t>
-  </si>
-  <si>
     <t>黄日时</t>
   </si>
   <si>
@@ -794,9 +791,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -809,7 +806,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -823,30 +820,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -860,40 +842,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -904,22 +854,6 @@
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -938,8 +872,48 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -949,6 +923,29 @@
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -967,13 +964,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -985,13 +994,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1015,25 +1036,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1045,13 +1060,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1069,13 +1090,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1087,7 +1114,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1099,55 +1138,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1176,17 +1173,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1196,15 +1193,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1224,6 +1212,41 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1239,37 +1262,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1281,10 +1278,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1293,133 +1290,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1757,8 +1754,8 @@
   <sheetPr/>
   <dimension ref="A1:J225"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B71" sqref="B71"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2470,8 +2467,8 @@
       <c r="C35" s="3">
         <v>13768809762</v>
       </c>
-      <c r="D35" s="1" t="s">
-        <v>45</v>
+      <c r="D35" s="3" t="s">
+        <v>40</v>
       </c>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -2485,7 +2482,7 @@
         <v>35</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C36" s="3">
         <v>13557699486</v>
@@ -2505,7 +2502,7 @@
         <v>36</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C37" s="3">
         <v>13152608505</v>
@@ -2525,13 +2522,13 @@
         <v>37</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C38" s="3">
         <v>18076547264</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E38" s="1"/>
       <c r="F38" s="1"/>
@@ -2545,13 +2542,13 @@
         <v>38</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C39" s="3">
         <v>13324711127</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
@@ -2565,13 +2562,13 @@
         <v>39</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C40" s="3">
         <v>13014915108</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="1"/>
       <c r="F40" s="1"/>
@@ -2585,7 +2582,7 @@
         <v>40</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C41" s="3">
         <v>13457033831</v>
@@ -2605,7 +2602,7 @@
         <v>41</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C42" s="3">
         <v>15877114550</v>
@@ -2625,7 +2622,7 @@
         <v>42</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C43" s="3">
         <v>18177177669</v>
@@ -2645,7 +2642,7 @@
         <v>43</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C44" s="3">
         <v>15278042091</v>
@@ -2665,7 +2662,7 @@
         <v>44</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C45" s="3">
         <v>13152609318</v>
@@ -2685,13 +2682,13 @@
         <v>45</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C46" s="3">
         <v>13597170815</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E46" s="1"/>
       <c r="F46" s="1"/>
@@ -2705,7 +2702,7 @@
         <v>46</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C47" s="3">
         <v>13737010373</v>
@@ -2725,7 +2722,7 @@
         <v>47</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C48" s="3">
         <v>15977452167</v>
@@ -2745,7 +2742,7 @@
         <v>48</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C49" s="3">
         <v>15778178648</v>
@@ -2765,13 +2762,13 @@
         <v>49</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C50" s="3">
         <v>18907819796</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E50" s="1"/>
       <c r="F50" s="1"/>
@@ -2785,7 +2782,7 @@
         <v>50</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C51" s="3">
         <v>15577128796</v>
@@ -2805,7 +2802,7 @@
         <v>51</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C52" s="3">
         <v>13978156249</v>
@@ -2825,7 +2822,7 @@
         <v>52</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C53" s="3">
         <v>18775699835</v>
@@ -2845,7 +2842,7 @@
         <v>53</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C54" s="3">
         <v>13788500739</v>
@@ -2865,7 +2862,7 @@
         <v>54</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C55" s="3">
         <v>18278107541</v>
@@ -2885,7 +2882,7 @@
         <v>55</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C56" s="3">
         <v>13557870882</v>
@@ -2905,7 +2902,7 @@
         <v>56</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C57" s="3">
         <v>18807811160</v>
@@ -2925,7 +2922,7 @@
         <v>57</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C58" s="3">
         <v>18878975913</v>
@@ -2945,7 +2942,7 @@
         <v>58</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C59" s="3">
         <v>13768585360</v>
@@ -2965,7 +2962,7 @@
         <v>59</v>
       </c>
       <c r="B60" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C60" s="3">
         <v>13457874054</v>
@@ -2985,13 +2982,13 @@
         <v>60</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C61" s="3">
         <v>13457939888</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
@@ -3005,13 +3002,13 @@
         <v>61</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C62" s="3">
         <v>15977661385</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E62" s="1"/>
       <c r="F62" s="1"/>
@@ -3025,7 +3022,7 @@
         <v>62</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C63" s="3">
         <v>13517576256</v>
@@ -3045,7 +3042,7 @@
         <v>63</v>
       </c>
       <c r="B64" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C64" s="3">
         <v>18378829509</v>
@@ -3065,7 +3062,7 @@
         <v>64</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C65" s="3">
         <v>18176870151</v>
@@ -3085,7 +3082,7 @@
         <v>65</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C66" s="3">
         <v>18376638360</v>
@@ -3105,7 +3102,7 @@
         <v>66</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C67" s="3">
         <v>13557997942</v>
@@ -3125,7 +3122,7 @@
         <v>67</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C68" s="3">
         <v>13724617972</v>
@@ -3145,7 +3142,7 @@
         <v>68</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C69" s="3">
         <v>13788418677</v>
@@ -3165,7 +3162,7 @@
         <v>69</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C70" s="3">
         <v>13724375493</v>
@@ -3185,13 +3182,13 @@
         <v>70</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C71" s="3">
         <v>18579808756</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
@@ -3205,13 +3202,13 @@
         <v>71</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C72" s="3">
         <v>18070706732</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
@@ -3225,13 +3222,13 @@
         <v>72</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C73" s="3">
         <v>15977668734</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E73" s="1"/>
       <c r="F73" s="1"/>
@@ -3245,7 +3242,7 @@
         <v>73</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C74" s="3">
         <v>18775357329</v>
@@ -3265,7 +3262,7 @@
         <v>74</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C75" s="3">
         <v>18775988492</v>
@@ -3285,13 +3282,13 @@
         <v>75</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C76" s="3">
         <v>18579808756</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E76" s="1"/>
       <c r="F76" s="1"/>
@@ -3305,13 +3302,13 @@
         <v>76</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C77" s="3">
         <v>18775696219</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E77" s="1"/>
       <c r="F77" s="1"/>
@@ -3325,13 +3322,13 @@
         <v>77</v>
       </c>
       <c r="B78" s="3" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C78" s="3">
         <v>13878765165</v>
       </c>
       <c r="D78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
@@ -3345,7 +3342,7 @@
         <v>78</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C79" s="3">
         <v>15878727206</v>
@@ -3365,7 +3362,7 @@
         <v>79</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C80" s="3">
         <v>18579851030</v>
@@ -3385,7 +3382,7 @@
         <v>80</v>
       </c>
       <c r="B81" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C81" s="3">
         <v>15728526906</v>
@@ -3405,7 +3402,7 @@
         <v>81</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C82" s="3">
         <v>15377033103</v>
@@ -3425,7 +3422,7 @@
         <v>82</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C83" s="3">
         <v>18807768111</v>
@@ -3445,7 +3442,7 @@
         <v>83</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C84" s="3">
         <v>18163715947</v>
@@ -3465,13 +3462,13 @@
         <v>84</v>
       </c>
       <c r="B85" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C85" s="3">
         <v>15296597280</v>
       </c>
       <c r="D85" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
@@ -3485,13 +3482,13 @@
         <v>85</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C86" s="3">
         <v>15240692358</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E86" s="1"/>
       <c r="F86" s="1"/>
@@ -3505,13 +3502,13 @@
         <v>86</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C87" s="3">
         <v>13788115410</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
@@ -3525,13 +3522,13 @@
         <v>87</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C88" s="3">
         <v>17376003820</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
@@ -3545,13 +3542,13 @@
         <v>88</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C89" s="3">
         <v>17758667131</v>
       </c>
       <c r="D89" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E89" s="1"/>
       <c r="F89" s="1"/>
@@ -3565,7 +3562,7 @@
         <v>89</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C90" s="3">
         <v>13347675118</v>
@@ -3585,7 +3582,7 @@
         <v>90</v>
       </c>
       <c r="B91" s="3" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C91" s="3">
         <v>17777133074</v>
@@ -3605,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="B92" s="3" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C92" s="3">
         <v>15977153040</v>
@@ -3625,13 +3622,13 @@
         <v>92</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C93" s="3">
         <v>13737903196</v>
       </c>
       <c r="D93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E93" s="1"/>
       <c r="F93" s="1"/>
@@ -3645,13 +3642,13 @@
         <v>93</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C94" s="3">
         <v>13457883207</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="E94" s="1"/>
       <c r="F94" s="1"/>
@@ -3665,13 +3662,13 @@
         <v>94</v>
       </c>
       <c r="B95" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C95" s="3">
         <v>18978123719</v>
       </c>
       <c r="D95" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E95" s="1"/>
       <c r="F95" s="1"/>
@@ -3685,13 +3682,13 @@
         <v>95</v>
       </c>
       <c r="B96" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C96" s="3">
         <v>13377855284</v>
       </c>
       <c r="D96" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E96" s="1"/>
       <c r="F96" s="1"/>
@@ -3705,13 +3702,13 @@
         <v>96</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C97" s="3">
         <v>13597117081</v>
       </c>
       <c r="D97" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1"/>
@@ -3725,13 +3722,13 @@
         <v>97</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C98" s="3">
         <v>17396748512</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E98" s="1"/>
       <c r="F98" s="1"/>
@@ -3745,13 +3742,13 @@
         <v>98</v>
       </c>
       <c r="B99" s="3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C99" s="3">
         <v>18978123719</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
@@ -3765,13 +3762,13 @@
         <v>99</v>
       </c>
       <c r="B100" s="3" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C100" s="3">
         <v>13377855284</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E100" s="1"/>
       <c r="F100" s="1"/>
@@ -3785,13 +3782,13 @@
         <v>100</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C101" s="3">
         <v>13132619229</v>
       </c>
       <c r="D101" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E101" s="1"/>
       <c r="F101" s="1"/>
@@ -3805,7 +3802,7 @@
         <v>101</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C102" s="3">
         <v>18707717650</v>
@@ -3825,7 +3822,7 @@
         <v>102</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C103" s="3">
         <v>13737908122</v>
@@ -3845,7 +3842,7 @@
         <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C104" s="3">
         <v>18878018576</v>
@@ -3865,7 +3862,7 @@
         <v>104</v>
       </c>
       <c r="B105" s="3" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C105" s="3">
         <v>18978151890</v>
@@ -3885,7 +3882,7 @@
         <v>105</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C106" s="3">
         <v>13878643631</v>
@@ -3905,7 +3902,7 @@
         <v>106</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C107" s="3">
         <v>13878626928</v>
@@ -3925,7 +3922,7 @@
         <v>107</v>
       </c>
       <c r="B108" s="3" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C108" s="3">
         <v>13978053410</v>
@@ -3945,7 +3942,7 @@
         <v>108</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C109" s="3">
         <v>15983241345</v>
@@ -3965,13 +3962,13 @@
         <v>109</v>
       </c>
       <c r="B110" s="3" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C110" s="3">
         <v>13978430032</v>
       </c>
       <c r="D110" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E110" s="1"/>
       <c r="F110" s="1"/>
@@ -4005,7 +4002,7 @@
         <v>111</v>
       </c>
       <c r="B112" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C112" s="3">
         <v>18677232839</v>
@@ -4025,7 +4022,7 @@
         <v>112</v>
       </c>
       <c r="B113" s="3" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C113" s="3">
         <v>18577145639</v>
@@ -4045,13 +4042,13 @@
         <v>113</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C114" s="3">
         <v>18675509106</v>
       </c>
       <c r="D114" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
@@ -4065,7 +4062,7 @@
         <v>114</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C115" s="3">
         <v>18275759399</v>
@@ -4085,7 +4082,7 @@
         <v>115</v>
       </c>
       <c r="B116" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C116" s="3">
         <v>18607898053</v>
@@ -4105,13 +4102,13 @@
         <v>116</v>
       </c>
       <c r="B117" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C117" s="3">
         <v>18280134670</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E117" s="1"/>
       <c r="F117" s="1"/>
@@ -4125,13 +4122,13 @@
         <v>117</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C118" s="3">
         <v>18280134670</v>
       </c>
       <c r="D118" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E118" s="1"/>
       <c r="F118" s="1"/>
@@ -4145,13 +4142,13 @@
         <v>118</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C119" s="3">
         <v>15528861566</v>
       </c>
       <c r="D119" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E119" s="1"/>
       <c r="F119" s="1"/>
@@ -4165,13 +4162,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C120" s="3">
         <v>15983241345</v>
       </c>
       <c r="D120" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E120" s="1"/>
       <c r="F120" s="1"/>
@@ -4185,13 +4182,13 @@
         <v>120</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C121" s="3">
         <v>15796810198</v>
       </c>
       <c r="D121" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E121" s="1"/>
       <c r="F121" s="1"/>
@@ -4205,13 +4202,13 @@
         <v>121</v>
       </c>
       <c r="B122" s="3" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="C122" s="3">
         <v>15308372727</v>
       </c>
       <c r="D122" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E122" s="1"/>
       <c r="F122" s="1"/>
@@ -4225,13 +4222,13 @@
         <v>122</v>
       </c>
       <c r="B123" s="3" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="C123" s="3">
         <v>15196810198</v>
       </c>
       <c r="D123" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E123" s="1"/>
       <c r="F123" s="1"/>
@@ -4245,13 +4242,13 @@
         <v>123</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="3">
         <v>18398092683</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E124" s="1"/>
       <c r="F124" s="1"/>
@@ -4265,13 +4262,13 @@
         <v>124</v>
       </c>
       <c r="B125" s="3" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="3">
         <v>13198039388</v>
       </c>
       <c r="D125" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E125" s="1"/>
       <c r="F125" s="1"/>
@@ -4285,13 +4282,13 @@
         <v>125</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C126" s="3">
         <v>18982952059</v>
       </c>
       <c r="D126" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="E126" s="1"/>
       <c r="F126" s="1"/>
@@ -4305,13 +4302,13 @@
         <v>126</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C127" s="3">
         <v>13684114116</v>
       </c>
       <c r="D127" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E127" s="1"/>
       <c r="F127" s="1"/>
@@ -4325,13 +4322,13 @@
         <v>127</v>
       </c>
       <c r="B128" s="3" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C128" s="3">
         <v>18381562258</v>
       </c>
       <c r="D128" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E128" s="1"/>
       <c r="F128" s="1"/>
@@ -4345,13 +4342,13 @@
         <v>128</v>
       </c>
       <c r="B129" s="3" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C129" s="3">
         <v>13438429661</v>
       </c>
       <c r="D129" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E129" s="1"/>
       <c r="F129" s="1"/>
@@ -4365,13 +4362,13 @@
         <v>129</v>
       </c>
       <c r="B130" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="C130" s="3">
         <v>13739431204</v>
       </c>
       <c r="D130" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E130" s="1"/>
       <c r="F130" s="1"/>
@@ -4385,13 +4382,13 @@
         <v>130</v>
       </c>
       <c r="B131" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C131" s="3">
         <v>15760012403</v>
       </c>
       <c r="D131" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E131" s="1"/>
       <c r="F131" s="1"/>
@@ -4405,13 +4402,13 @@
         <v>131</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C132" s="3">
         <v>15308572486</v>
       </c>
       <c r="D132" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E132" s="1"/>
       <c r="F132" s="1"/>
@@ -4425,13 +4422,13 @@
         <v>132</v>
       </c>
       <c r="B133" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C133" s="3">
         <v>15183781653</v>
       </c>
       <c r="D133" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E133" s="1"/>
       <c r="F133" s="1"/>
@@ -4445,13 +4442,13 @@
         <v>133</v>
       </c>
       <c r="B134" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C134" s="3">
         <v>15902837296</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E134" s="1"/>
       <c r="F134" s="1"/>
@@ -4465,13 +4462,13 @@
         <v>134</v>
       </c>
       <c r="B135" s="3" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C135" s="3">
         <v>15308385020</v>
       </c>
       <c r="D135" s="1" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="E135" s="1"/>
       <c r="F135" s="1"/>
@@ -4485,13 +4482,13 @@
         <v>135</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C136" s="3">
         <v>13878759395</v>
       </c>
       <c r="D136" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E136" s="1"/>
       <c r="F136" s="1"/>
@@ -4505,13 +4502,13 @@
         <v>136</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C137" s="3">
         <v>13978412083</v>
       </c>
       <c r="D137" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E137" s="1"/>
       <c r="F137" s="1"/>
@@ -4525,13 +4522,13 @@
         <v>137</v>
       </c>
       <c r="B138" s="3" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C138" s="3">
         <v>13807841883</v>
       </c>
       <c r="D138" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E138" s="1"/>
       <c r="F138" s="1"/>
@@ -4545,13 +4542,13 @@
         <v>138</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C139" s="3">
         <v>18878888166</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E139" s="1"/>
       <c r="F139" s="1"/>
@@ -4565,13 +4562,13 @@
         <v>139</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C140" s="3">
         <v>13978430081</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E140" s="1"/>
       <c r="F140" s="1"/>
@@ -4585,13 +4582,13 @@
         <v>140</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C141" s="3">
         <v>18278412773</v>
       </c>
       <c r="D141" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E141" s="1"/>
       <c r="F141" s="1"/>
@@ -4605,13 +4602,13 @@
         <v>141</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C142" s="3">
         <v>18878482288</v>
       </c>
       <c r="D142" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E142" s="1"/>
       <c r="F142" s="1"/>
@@ -4625,13 +4622,13 @@
         <v>142</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C143" s="3">
         <v>13097744168</v>
       </c>
       <c r="D143" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E143" s="1"/>
       <c r="F143" s="1"/>
@@ -4645,13 +4642,13 @@
         <v>143</v>
       </c>
       <c r="B144" s="3" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C144" s="3">
         <v>13807840029</v>
       </c>
       <c r="D144" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E144" s="1"/>
       <c r="F144" s="1"/>
@@ -4665,13 +4662,13 @@
         <v>144</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C145" s="3">
         <v>13657888858</v>
       </c>
       <c r="D145" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E145" s="1"/>
       <c r="F145" s="1"/>
@@ -4685,13 +4682,13 @@
         <v>145</v>
       </c>
       <c r="B146" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C146" s="3">
         <v>13700942840</v>
       </c>
       <c r="D146" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E146" s="1"/>
       <c r="F146" s="1"/>
@@ -4705,13 +4702,13 @@
         <v>146</v>
       </c>
       <c r="B147" s="3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C147" s="3">
         <v>13795703703</v>
       </c>
       <c r="D147" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E147" s="1"/>
       <c r="F147" s="1"/>
@@ -4725,13 +4722,13 @@
         <v>147</v>
       </c>
       <c r="B148" s="3" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C148" s="3">
         <v>13183942282</v>
       </c>
       <c r="D148" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E148" s="1"/>
       <c r="F148" s="1"/>
@@ -4745,13 +4742,13 @@
         <v>148</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C149" s="3">
         <v>15308367969</v>
       </c>
       <c r="D149" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E149" s="1"/>
       <c r="F149" s="1"/>
@@ -4765,13 +4762,13 @@
         <v>149</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C150" s="3">
         <v>18584852649</v>
       </c>
       <c r="D150" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E150" s="1"/>
       <c r="F150" s="1"/>
@@ -4785,13 +4782,13 @@
         <v>150</v>
       </c>
       <c r="B151" s="3" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C151" s="3">
         <v>15196810198</v>
       </c>
       <c r="D151" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E151" s="1"/>
       <c r="F151" s="1"/>
@@ -4805,13 +4802,13 @@
         <v>151</v>
       </c>
       <c r="B152" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C152" s="3">
         <v>13377100954</v>
       </c>
       <c r="D152" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E152" s="1"/>
       <c r="F152" s="1"/>
@@ -4825,13 +4822,13 @@
         <v>152</v>
       </c>
       <c r="B153" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C153" s="3">
         <v>17358618603</v>
       </c>
       <c r="D153" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E153" s="1"/>
       <c r="F153" s="1"/>
@@ -4845,13 +4842,13 @@
         <v>153</v>
       </c>
       <c r="B154" s="3" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C154" s="3">
         <v>15308385020</v>
       </c>
       <c r="D154" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E154" s="1"/>
       <c r="F154" s="1"/>
@@ -4865,13 +4862,13 @@
         <v>154</v>
       </c>
       <c r="B155" s="3" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C155" s="3">
         <v>15182198257</v>
       </c>
       <c r="D155" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E155" s="1"/>
       <c r="F155" s="1"/>
@@ -4885,13 +4882,13 @@
         <v>155</v>
       </c>
       <c r="B156" s="3" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C156" s="3">
         <v>18980979458</v>
       </c>
       <c r="D156" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E156" s="1"/>
       <c r="F156" s="1"/>
@@ -4905,13 +4902,13 @@
         <v>156</v>
       </c>
       <c r="B157" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C157" s="3">
         <v>13882968052</v>
       </c>
       <c r="D157" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E157" s="1"/>
       <c r="F157" s="1"/>
@@ -4925,13 +4922,13 @@
         <v>157</v>
       </c>
       <c r="B158" s="3" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C158" s="3">
         <v>18048482031</v>
       </c>
       <c r="D158" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E158" s="1"/>
       <c r="F158" s="1"/>
@@ -4945,13 +4942,13 @@
         <v>158</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C159" s="3">
         <v>18628872727</v>
       </c>
       <c r="D159" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E159" s="1"/>
       <c r="F159" s="1"/>
@@ -4965,13 +4962,13 @@
         <v>159</v>
       </c>
       <c r="B160" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C160" s="3">
         <v>15718054055</v>
       </c>
       <c r="D160" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E160" s="1"/>
       <c r="F160" s="1"/>
@@ -4985,13 +4982,13 @@
         <v>160</v>
       </c>
       <c r="B161" s="3" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C161" s="3">
         <v>13367503934</v>
       </c>
       <c r="D161" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E161" s="1"/>
       <c r="F161" s="1"/>
@@ -5005,13 +5002,13 @@
         <v>161</v>
       </c>
       <c r="B162" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C162" s="3">
         <v>15828474209</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E162" s="1"/>
       <c r="F162" s="1"/>
@@ -5025,13 +5022,13 @@
         <v>162</v>
       </c>
       <c r="B163" s="3" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C163" s="3">
         <v>15909315376</v>
       </c>
       <c r="D163" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E163" s="1"/>
       <c r="F163" s="1"/>
@@ -5045,13 +5042,13 @@
         <v>163</v>
       </c>
       <c r="B164" s="3" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C164" s="3">
         <v>18683713120</v>
       </c>
       <c r="D164" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E164" s="1"/>
       <c r="F164" s="1"/>
@@ -5065,13 +5062,13 @@
         <v>164</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C165" s="3">
         <v>13325532831</v>
       </c>
       <c r="D165" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="E165" s="1"/>
       <c r="F165" s="1"/>
@@ -5085,13 +5082,13 @@
         <v>165</v>
       </c>
       <c r="B166" s="3" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C166" s="3">
         <v>13032845150</v>
       </c>
       <c r="D166" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E166" s="1"/>
       <c r="F166" s="1"/>
@@ -5105,13 +5102,13 @@
         <v>166</v>
       </c>
       <c r="B167" s="3" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C167" s="3">
         <v>13699034110</v>
       </c>
       <c r="D167" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E167" s="1"/>
       <c r="F167" s="1"/>
@@ -5125,13 +5122,13 @@
         <v>167</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C168" s="3">
         <v>18980969549</v>
       </c>
       <c r="D168" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E168" s="1"/>
       <c r="F168" s="1"/>
@@ -5145,13 +5142,13 @@
         <v>168</v>
       </c>
       <c r="B169" s="3" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C169" s="3">
         <v>13795702658</v>
       </c>
       <c r="D169" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E169" s="1"/>
       <c r="F169" s="1"/>
@@ -5165,13 +5162,13 @@
         <v>169</v>
       </c>
       <c r="B170" s="3" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C170" s="3">
         <v>15328491072</v>
       </c>
       <c r="D170" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E170" s="1"/>
       <c r="F170" s="1"/>
@@ -5185,13 +5182,13 @@
         <v>170</v>
       </c>
       <c r="B171" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C171" s="3">
         <v>13684135104</v>
       </c>
       <c r="D171" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E171" s="1"/>
       <c r="F171" s="1"/>
@@ -5205,13 +5202,13 @@
         <v>171</v>
       </c>
       <c r="B172" s="3" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C172" s="3">
         <v>13882966996</v>
       </c>
       <c r="D172" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E172" s="1"/>
       <c r="F172" s="1"/>
@@ -5225,13 +5222,13 @@
         <v>172</v>
       </c>
       <c r="B173" s="3" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="C173" s="3">
         <v>13982957169</v>
       </c>
       <c r="D173" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E173" s="1"/>
       <c r="F173" s="1"/>
@@ -5245,13 +5242,13 @@
         <v>173</v>
       </c>
       <c r="B174" s="3" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="C174" s="3">
         <v>13558939890</v>
       </c>
       <c r="D174" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E174" s="1"/>
       <c r="F174" s="1"/>
@@ -5265,13 +5262,13 @@
         <v>174</v>
       </c>
       <c r="B175" s="3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="C175" s="3">
         <v>13980988969</v>
       </c>
       <c r="D175" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E175" s="1"/>
       <c r="F175" s="1"/>
@@ -5285,13 +5282,13 @@
         <v>175</v>
       </c>
       <c r="B176" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C176" s="3">
         <v>13982952718</v>
       </c>
       <c r="D176" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E176" s="1"/>
       <c r="F176" s="1"/>
@@ -5305,13 +5302,13 @@
         <v>176</v>
       </c>
       <c r="B177" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C177" s="3">
         <v>13982718852</v>
       </c>
       <c r="D177" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E177" s="1"/>
       <c r="F177" s="1"/>
@@ -5325,13 +5322,13 @@
         <v>177</v>
       </c>
       <c r="B178" s="3" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="C178" s="3">
         <v>13882969874</v>
       </c>
       <c r="D178" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E178" s="1"/>
       <c r="F178" s="1"/>
@@ -5345,13 +5342,13 @@
         <v>178</v>
       </c>
       <c r="B179" s="3" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C179" s="3">
         <v>13868443276</v>
       </c>
       <c r="D179" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E179" s="1"/>
       <c r="F179" s="1"/>
@@ -5365,13 +5362,13 @@
         <v>179</v>
       </c>
       <c r="B180" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C180" s="3">
         <v>18982961185</v>
       </c>
       <c r="D180" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E180" s="1"/>
       <c r="F180" s="1"/>
@@ -5385,13 +5382,13 @@
         <v>180</v>
       </c>
       <c r="B181" s="3" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C181" s="3">
         <v>15983241345</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E181" s="1"/>
       <c r="F181" s="1"/>
@@ -5405,13 +5402,13 @@
         <v>181</v>
       </c>
       <c r="B182" s="3" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C182" s="3">
         <v>15182198257</v>
       </c>
       <c r="D182" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E182" s="1"/>
       <c r="F182" s="1"/>
@@ -5425,13 +5422,13 @@
         <v>182</v>
       </c>
       <c r="B183" s="3" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C183" s="3">
         <v>15196819551</v>
       </c>
       <c r="D183" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E183" s="1"/>
       <c r="F183" s="1"/>
@@ -5445,13 +5442,13 @@
         <v>183</v>
       </c>
       <c r="B184" s="3" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C184" s="3">
         <v>13882919199</v>
       </c>
       <c r="D184" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E184" s="1"/>
       <c r="F184" s="1"/>
@@ -5465,13 +5462,13 @@
         <v>184</v>
       </c>
       <c r="B185" s="3" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C185" s="3">
         <v>13186992534</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="E185" s="1"/>
       <c r="F185" s="1"/>
@@ -5485,13 +5482,13 @@
         <v>185</v>
       </c>
       <c r="B186" s="3" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C186" s="3">
         <v>15182198257</v>
       </c>
       <c r="D186" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E186" s="1"/>
       <c r="F186" s="1"/>
@@ -5505,13 +5502,13 @@
         <v>186</v>
       </c>
       <c r="B187" s="3" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C187" s="3">
         <v>13377100954</v>
       </c>
       <c r="D187" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E187" s="1"/>
       <c r="F187" s="1"/>
@@ -5525,13 +5522,13 @@
         <v>187</v>
       </c>
       <c r="B188" s="3" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C188" s="3">
         <v>15288235768</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E188" s="1"/>
       <c r="F188" s="1"/>
@@ -5545,13 +5542,13 @@
         <v>188</v>
       </c>
       <c r="B189" s="3" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C189" s="3">
         <v>18190382807</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E189" s="1"/>
       <c r="F189" s="1"/>
@@ -5565,13 +5562,13 @@
         <v>189</v>
       </c>
       <c r="B190" s="3" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C190" s="3">
         <v>18840900171</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E190" s="1"/>
       <c r="F190" s="1"/>
@@ -5585,13 +5582,13 @@
         <v>190</v>
       </c>
       <c r="B191" s="3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C191" s="3">
         <v>13032845150</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="E191" s="1"/>
       <c r="F191" s="1"/>
@@ -5605,13 +5602,13 @@
         <v>191</v>
       </c>
       <c r="B192" s="3" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C192" s="3">
         <v>15082110715</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E192" s="1"/>
       <c r="F192" s="1"/>
@@ -5625,13 +5622,13 @@
         <v>192</v>
       </c>
       <c r="B193" s="3" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C193" s="3">
         <v>13982936462</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E193" s="1"/>
       <c r="F193" s="1"/>
@@ -5645,13 +5642,13 @@
         <v>193</v>
       </c>
       <c r="B194" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C194" s="3">
         <v>13907450919</v>
       </c>
       <c r="D194" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E194" s="1"/>
       <c r="F194" s="1"/>
@@ -5665,13 +5662,13 @@
         <v>194</v>
       </c>
       <c r="B195" s="3" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C195" s="3">
         <v>18381557449</v>
       </c>
       <c r="D195" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E195" s="1"/>
       <c r="F195" s="1"/>
@@ -5685,13 +5682,13 @@
         <v>195</v>
       </c>
       <c r="B196" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="C196" s="3">
         <v>18181342520</v>
       </c>
       <c r="D196" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E196" s="1"/>
       <c r="F196" s="1"/>
@@ -5705,13 +5702,13 @@
         <v>196</v>
       </c>
       <c r="B197" s="3" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C197" s="3">
         <v>13882968052</v>
       </c>
       <c r="D197" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E197" s="1"/>
       <c r="F197" s="1"/>
@@ -5725,13 +5722,13 @@
         <v>197</v>
       </c>
       <c r="B198" s="3" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C198" s="3">
         <v>15308364129</v>
       </c>
       <c r="D198" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E198" s="1"/>
       <c r="F198" s="1"/>
@@ -5745,13 +5742,13 @@
         <v>198</v>
       </c>
       <c r="B199" s="3" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C199" s="3">
         <v>17031976719</v>
       </c>
       <c r="D199" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E199" s="1"/>
       <c r="F199" s="1"/>
@@ -5765,13 +5762,13 @@
         <v>199</v>
       </c>
       <c r="B200" s="3" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C200" s="3">
         <v>15828658768</v>
       </c>
       <c r="D200" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E200" s="1"/>
       <c r="F200" s="1"/>
@@ -5785,13 +5782,13 @@
         <v>200</v>
       </c>
       <c r="B201" s="3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C201" s="3">
         <v>15082110715</v>
       </c>
       <c r="D201" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E201" s="1"/>
       <c r="F201" s="1"/>
@@ -5805,13 +5802,13 @@
         <v>201</v>
       </c>
       <c r="B202" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C202" s="3">
         <v>15183755660</v>
       </c>
       <c r="D202" s="1" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="E202" s="1"/>
       <c r="F202" s="1"/>
@@ -5825,13 +5822,13 @@
         <v>202</v>
       </c>
       <c r="B203" s="3" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C203" s="3">
         <v>18782494415</v>
       </c>
       <c r="D203" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E203" s="1"/>
       <c r="F203" s="1"/>
@@ -5845,13 +5842,13 @@
         <v>203</v>
       </c>
       <c r="B204" s="3" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C204" s="3">
         <v>18628878732</v>
       </c>
       <c r="D204" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E204" s="1"/>
       <c r="F204" s="1"/>
@@ -5865,13 +5862,13 @@
         <v>204</v>
       </c>
       <c r="B205" s="3" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C205" s="3">
         <v>17882378389</v>
       </c>
       <c r="D205" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E205" s="1"/>
       <c r="F205" s="1"/>
@@ -5885,13 +5882,13 @@
         <v>205</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C206" s="3">
         <v>15983241345</v>
       </c>
       <c r="D206" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E206" s="1"/>
       <c r="F206" s="1"/>
@@ -5905,13 +5902,13 @@
         <v>206</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C207" s="3">
         <v>13882908052</v>
       </c>
       <c r="D207" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E207" s="1"/>
       <c r="F207" s="1"/>
@@ -5925,13 +5922,13 @@
         <v>207</v>
       </c>
       <c r="B208" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C208" s="3">
         <v>18982928263</v>
       </c>
       <c r="D208" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E208" s="1"/>
       <c r="F208" s="1"/>
@@ -5945,13 +5942,13 @@
         <v>208</v>
       </c>
       <c r="B209" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C209" s="3">
         <v>18581763116</v>
       </c>
       <c r="D209" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E209" s="1"/>
       <c r="F209" s="1"/>
@@ -5965,13 +5962,13 @@
         <v>209</v>
       </c>
       <c r="B210" s="3" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C210" s="3">
         <v>15308378264</v>
       </c>
       <c r="D210" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E210" s="1"/>
       <c r="F210" s="1"/>
@@ -5985,13 +5982,13 @@
         <v>210</v>
       </c>
       <c r="B211" s="3" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C211" s="3">
         <v>15983241345</v>
       </c>
       <c r="D211" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E211" s="1"/>
       <c r="F211" s="1"/>
@@ -6005,13 +6002,13 @@
         <v>211</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="C212" s="3">
         <v>15878326112</v>
       </c>
       <c r="D212" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="E212" s="1"/>
       <c r="F212" s="1"/>
@@ -6025,13 +6022,13 @@
         <v>212</v>
       </c>
       <c r="B213" s="3" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C213" s="3">
         <v>15282230522</v>
       </c>
       <c r="D213" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E213" s="1"/>
       <c r="F213" s="1"/>
@@ -6045,13 +6042,13 @@
         <v>213</v>
       </c>
       <c r="B214" s="3" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="C214" s="3">
         <v>13558866688</v>
       </c>
       <c r="D214" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E214" s="1"/>
       <c r="F214" s="1"/>
@@ -6065,13 +6062,13 @@
         <v>214</v>
       </c>
       <c r="B215" s="3" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C215" s="3">
         <v>13709246524</v>
       </c>
       <c r="D215" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E215" s="1"/>
       <c r="F215" s="1"/>
@@ -6085,13 +6082,13 @@
         <v>215</v>
       </c>
       <c r="B216" s="3" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C216" s="3">
         <v>17311078463</v>
       </c>
       <c r="D216" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E216" s="1"/>
       <c r="F216" s="1"/>
@@ -6105,13 +6102,13 @@
         <v>216</v>
       </c>
       <c r="B217" s="3" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="C217" s="3">
         <v>13694122685</v>
       </c>
       <c r="D217" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E217" s="1"/>
       <c r="F217" s="1"/>
@@ -6125,13 +6122,13 @@
         <v>217</v>
       </c>
       <c r="B218" s="3" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C218" s="3">
         <v>15308372625</v>
       </c>
       <c r="D218" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E218" s="1"/>
       <c r="F218" s="1"/>
@@ -6145,13 +6142,13 @@
         <v>218</v>
       </c>
       <c r="B219" s="3" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C219" s="3">
         <v>15907848008</v>
       </c>
       <c r="D219" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E219" s="1"/>
       <c r="F219" s="1"/>
@@ -6165,13 +6162,13 @@
         <v>219</v>
       </c>
       <c r="B220" s="3" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C220" s="3">
         <v>13882108478</v>
       </c>
       <c r="D220" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E220" s="1"/>
       <c r="F220" s="1"/>
@@ -6185,13 +6182,13 @@
         <v>220</v>
       </c>
       <c r="B221" s="3" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C221" s="3">
         <v>18982907320</v>
       </c>
       <c r="D221" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E221" s="1"/>
       <c r="F221" s="1"/>
@@ -6205,13 +6202,13 @@
         <v>221</v>
       </c>
       <c r="B222" s="3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="C222" s="3">
         <v>17736833756</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="E222" s="1"/>
       <c r="F222" s="1"/>
@@ -6222,13 +6219,13 @@
     </row>
     <row r="223" spans="1:4">
       <c r="A223" t="s">
+        <v>231</v>
+      </c>
+      <c r="B223" t="s">
         <v>232</v>
       </c>
-      <c r="B223" t="s">
+      <c r="C223" t="s">
         <v>233</v>
-      </c>
-      <c r="C223" t="s">
-        <v>234</v>
       </c>
       <c r="D223" t="s">
         <v>17</v>
@@ -6236,13 +6233,13 @@
     </row>
     <row r="224" spans="1:4">
       <c r="A224" t="s">
+        <v>234</v>
+      </c>
+      <c r="B224" t="s">
+        <v>122</v>
+      </c>
+      <c r="C224" t="s">
         <v>235</v>
-      </c>
-      <c r="B224" t="s">
-        <v>123</v>
-      </c>
-      <c r="C224" t="s">
-        <v>236</v>
       </c>
       <c r="D224" t="s">
         <v>17</v>
@@ -6250,16 +6247,16 @@
     </row>
     <row r="225" spans="1:4">
       <c r="A225" t="s">
+        <v>236</v>
+      </c>
+      <c r="B225" t="s">
+        <v>123</v>
+      </c>
+      <c r="C225" t="s">
         <v>237</v>
       </c>
-      <c r="B225" t="s">
-        <v>124</v>
-      </c>
-      <c r="C225" t="s">
-        <v>238</v>
-      </c>
       <c r="D225" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
   </sheetData>
